--- a/Excel/DynamicEntity/TriggerBox/TriggerBoxConfig.xlsx
+++ b/Excel/DynamicEntity/TriggerBox/TriggerBoxConfig.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="3870" yWindow="4200" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
-    <sheet name="item" sheetId="1" r:id="rId1"/>
+    <sheet name="TriggerBox" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>触发盒配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffConfigId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对触发者施加的Buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E5"/>
+  <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD29"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -452,15 +464,16 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,8 +483,11 @@
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -479,14 +495,20 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/DynamicEntity/TriggerBox/TriggerBoxConfig.xlsx
+++ b/Excel/DynamicEntity/TriggerBox/TriggerBoxConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\DynamicEntity\TriggerBox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\DynamicEntity\TriggerBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C6968-1EAD-41A0-AE0F-490A4BB42B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4200" windowWidth="21600" windowHeight="11400"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TriggerBox" sheetId="1" r:id="rId1"/>
@@ -47,22 +48,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuffConfigId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对触发者施加的Buff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerBuffId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -484,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
@@ -496,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -508,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
